--- a/Libro2.xlsx
+++ b/Libro2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeronimo Vargas\OneDrive\Documentos\10 SEMESTRE\TESIS IIND-ISIS\REPOSITORIO\ciclorutas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63665194-4D2F-4750-8CA7-A8AD27281DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386486B-9250-4E7B-A5B9-46F58E7F8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{4BB8F4FA-B949-4460-8157-8C549D75BAE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BB8F4FA-B949-4460-8157-8C549D75BAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>ARCOS</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -429,37 +432,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32277D9-D0E2-498E-BB3A-94A5AEE1BFE6}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -469,22 +477,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AFDB9-BA72-4777-9C9A-5F1B7F64BA80}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -506,7 +514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -517,7 +525,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -526,6 +534,28 @@
       </c>
       <c r="C5">
         <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
